--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Uni\Data Science\Statistics and visualizations in R\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Uni\Data Science\Statistics and visualizations in R\r_plotly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9ADC2A1-9A11-41A6-BCB6-D340BBF6E584}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12067608-98F7-4496-8331-8C075B14E6E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CD8CD681-C1EE-4564-AB6F-0B1E67F3DC53}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>Einführung</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,6 +466,9 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
       <c r="F3">
         <v>20</v>
       </c>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Uni\Data Science\Statistics and visualizations in R\r_plotly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Dropbox\Uni\Data Science\Statistics and visualizations in R\r_plotly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12067608-98F7-4496-8331-8C075B14E6E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7176447F-BED9-4E04-9A49-954A4C4BAA75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CD8CD681-C1EE-4564-AB6F-0B1E67F3DC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>Einführung</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Karin</t>
+  </si>
+  <si>
+    <t>Kombination plotly, ggplotly</t>
   </si>
 </sst>
 </file>
@@ -436,7 +439,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +510,12 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
@@ -532,10 +541,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -551,13 +560,10 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -573,10 +579,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>20</v>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThinkPad\Dropbox\Uni\Data Science\Statistics and visualizations in R\r_plotly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7176447F-BED9-4E04-9A49-954A4C4BAA75}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C5C96FD6-023F-4F17-B4E3-C686EDB3D4A2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CD8CD681-C1EE-4564-AB6F-0B1E67F3DC53}"/>
   </bookViews>
@@ -42,9 +42,6 @@
     <t>Intermediate</t>
   </si>
   <si>
-    <t>Export, Mouseover, Mosaic etc.</t>
-  </si>
-  <si>
     <t>ggplotly</t>
   </si>
   <si>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>Kombination plotly, ggplotly</t>
+  </si>
+  <si>
+    <t>Export, Mouseover, Mosaic</t>
   </si>
 </sst>
 </file>
@@ -120,8 +120,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -439,7 +442,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,13 +453,13 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -466,11 +469,11 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -480,6 +483,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="1"/>
       <c r="F4">
         <v>10</v>
       </c>
@@ -488,11 +492,11 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5">
         <v>20</v>
@@ -502,19 +506,20 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="1"/>
       <c r="F6">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>20</v>
@@ -524,27 +529,30 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="1"/>
       <c r="F8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D9" s="1"/>
       <c r="F9">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" t="s">
         <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -554,16 +562,18 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
+      <c r="D11" s="1"/>
       <c r="F11">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" t="s">
         <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -573,19 +583,20 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
+      <c r="D13" s="1"/>
       <c r="F13">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -595,6 +606,7 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="1"/>
       <c r="F15">
         <v>5</v>
       </c>
@@ -607,5 +619,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Uni\Data Science\Statistics and visualizations in R\r_plotly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anwender\r_plotly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12067608-98F7-4496-8331-8C075B14E6E8}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{B2ADF34A-4FE9-4215-8E39-2FCE9DAC2014}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{CD8CD681-C1EE-4564-AB6F-0B1E67F3DC53}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Einführung</t>
   </si>
@@ -436,7 +436,7 @@
   <dimension ref="B2:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,6 +507,9 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
       <c r="F7">
         <v>20</v>
       </c>
@@ -532,10 +535,10 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F10">
         <v>20</v>
@@ -551,13 +554,10 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -573,10 +573,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F14">
         <v>20</v>
